--- a/Organisation/TRAORE MATENIN - Journal De Bord.xlsx
+++ b/Organisation/TRAORE MATENIN - Journal De Bord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Renforcé mes connaissances en JS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           Commencement de la récupération d'identifiant avec nodeJs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                             </t>
     </r>
   </si>
 </sst>
@@ -242,6 +267,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,8 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -568,25 +593,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
@@ -605,179 +630,181 @@
       <c r="A3" s="2">
         <v>44529</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>44530</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>44531</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>44532</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9">
         <v>44533</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>44536</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>44537</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>44538</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>44539</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
@@ -794,8 +821,8 @@
       <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="1"/>
@@ -856,17 +883,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:H1"/>
@@ -883,6 +899,17 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Organisation/TRAORE MATENIN - Journal De Bord.xlsx
+++ b/Organisation/TRAORE MATENIN - Journal De Bord.xlsx
@@ -170,7 +170,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">           Commencement de la récupération d'identifiant avec nodeJs </t>
+      <t xml:space="preserve">           Commencement de la récupération d'identifiant avec nodeJS</t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                             </t>
+      <t xml:space="preserve">                          </t>
     </r>
   </si>
 </sst>
@@ -579,7 +579,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -883,6 +883,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:H1"/>
@@ -899,17 +910,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Organisation/TRAORE MATENIN - Journal De Bord.xlsx
+++ b/Organisation/TRAORE MATENIN - Journal De Bord.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d09ff2c27261faa3/Bureau/NFC-Historic/NFC-Historic/Organisation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_CB1D9852F2D1D2F05DFD259358FF5584479A398B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B75968B-2868-4BC5-9898-A6321267D43A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -40,15 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">                                                                 </t>
@@ -183,12 +180,27 @@
       <t xml:space="preserve">                          </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">                                                             Rapport de projet &amp; Mise en forme du readme avec GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Intéraction entre nodeJS etl'interface Web &amp; Mise en communs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Pas d'intéraction entre le node JS &amp; l'interface Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun   </t>
+  </si>
+  <si>
+    <t>Renforcé mes connaissances avec GitHub &amp; JS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +300,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -334,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,9 +386,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,6 +438,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,24 +631,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
     <col min="5" max="5" width="116" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -604,7 +660,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,205 +682,207 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44529</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44530</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44531</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44532</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44533</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44536</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44537</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44538</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44539</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44540</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -833,49 +891,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -883,17 +941,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:H1"/>
@@ -910,6 +957,17 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -917,24 +975,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
